--- a/FrameWorkMOTut/TestData/Data.xlsx
+++ b/FrameWorkMOTut/TestData/Data.xlsx
@@ -21,7 +21,7 @@
     <t>bpoonam1212@gmail.com</t>
   </si>
   <si>
-    <t>Admin@12345</t>
+    <t>Admin@123456</t>
   </si>
 </sst>
 </file>
